--- a/Code/Results/Cases/Case_4_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_125/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9940445297527909</v>
+        <v>1.025004462179452</v>
       </c>
       <c r="D2">
-        <v>1.016143934903596</v>
+        <v>1.033247798436321</v>
       </c>
       <c r="E2">
-        <v>1.002260865432195</v>
+        <v>1.028631126780108</v>
       </c>
       <c r="F2">
-        <v>1.015686062844846</v>
+        <v>1.040182332634911</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044709241325606</v>
+        <v>1.031639531406335</v>
       </c>
       <c r="J2">
-        <v>1.016404838813611</v>
+        <v>1.030175907542011</v>
       </c>
       <c r="K2">
-        <v>1.027382848994637</v>
+        <v>1.036050695691546</v>
       </c>
       <c r="L2">
-        <v>1.013688792416069</v>
+        <v>1.03144738233814</v>
       </c>
       <c r="M2">
-        <v>1.026931107166757</v>
+        <v>1.042965406825756</v>
       </c>
       <c r="N2">
-        <v>1.009419140881123</v>
+        <v>1.014093175471355</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9984973534040451</v>
+        <v>1.025941250642918</v>
       </c>
       <c r="D3">
-        <v>1.01950664349114</v>
+        <v>1.0339643505983</v>
       </c>
       <c r="E3">
-        <v>1.006201727999606</v>
+        <v>1.02951522696082</v>
       </c>
       <c r="F3">
-        <v>1.01978424907082</v>
+        <v>1.041091116857807</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045918697135007</v>
+        <v>1.031802521816234</v>
       </c>
       <c r="J3">
-        <v>1.019029066070087</v>
+        <v>1.030751910269369</v>
       </c>
       <c r="K3">
-        <v>1.029895871703354</v>
+        <v>1.036576435339062</v>
       </c>
       <c r="L3">
-        <v>1.016755866815325</v>
+        <v>1.032139253270252</v>
       </c>
       <c r="M3">
-        <v>1.030170093409529</v>
+        <v>1.043684303002206</v>
       </c>
       <c r="N3">
-        <v>1.010297018859026</v>
+        <v>1.014284739735747</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001319107047127</v>
+        <v>1.026547693437132</v>
       </c>
       <c r="D4">
-        <v>1.021637763715831</v>
+        <v>1.034427837185092</v>
       </c>
       <c r="E4">
-        <v>1.008704594948322</v>
+        <v>1.030087932679007</v>
       </c>
       <c r="F4">
-        <v>1.022384927251776</v>
+        <v>1.041679525126929</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046669921252844</v>
+        <v>1.031906136428874</v>
       </c>
       <c r="J4">
-        <v>1.02068913001572</v>
+        <v>1.03112430196314</v>
       </c>
       <c r="K4">
-        <v>1.031481869889356</v>
+        <v>1.036915784234094</v>
       </c>
       <c r="L4">
-        <v>1.018699086239345</v>
+        <v>1.032586940908179</v>
       </c>
       <c r="M4">
-        <v>1.032220488976591</v>
+        <v>1.044149211231412</v>
       </c>
       <c r="N4">
-        <v>1.010852227423588</v>
+        <v>1.014408549014147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002491622187268</v>
+        <v>1.026802707625267</v>
       </c>
       <c r="D5">
-        <v>1.022523283307805</v>
+        <v>1.03462264466745</v>
       </c>
       <c r="E5">
-        <v>1.009745897067907</v>
+        <v>1.030328848604258</v>
       </c>
       <c r="F5">
-        <v>1.023466410900036</v>
+        <v>1.041926977717732</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046978369673317</v>
+        <v>1.031949252117797</v>
       </c>
       <c r="J5">
-        <v>1.02137819857598</v>
+        <v>1.031280777731725</v>
       </c>
       <c r="K5">
-        <v>1.032139282956489</v>
+        <v>1.037058244342417</v>
       </c>
       <c r="L5">
-        <v>1.019506417274674</v>
+        <v>1.032775147917316</v>
       </c>
       <c r="M5">
-        <v>1.033071919098423</v>
+        <v>1.044344593796908</v>
       </c>
       <c r="N5">
-        <v>1.011082652697144</v>
+        <v>1.014460563220377</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002687700379305</v>
+        <v>1.026845529451834</v>
       </c>
       <c r="D6">
-        <v>1.022671364798451</v>
+        <v>1.034655351179621</v>
       </c>
       <c r="E6">
-        <v>1.009920107645212</v>
+        <v>1.030369308232651</v>
       </c>
       <c r="F6">
-        <v>1.023647313569531</v>
+        <v>1.041968531084067</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047029731633363</v>
+        <v>1.03195646537986</v>
       </c>
       <c r="J6">
-        <v>1.021493386523223</v>
+        <v>1.031307046117775</v>
       </c>
       <c r="K6">
-        <v>1.032249125039078</v>
+        <v>1.037082152133773</v>
       </c>
       <c r="L6">
-        <v>1.019641417546074</v>
+        <v>1.032806748619465</v>
       </c>
       <c r="M6">
-        <v>1.033214268052391</v>
+        <v>1.044377395549799</v>
       </c>
       <c r="N6">
-        <v>1.011121169607869</v>
+        <v>1.014469294559141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001334827636987</v>
+        <v>1.026551100692438</v>
       </c>
       <c r="D7">
-        <v>1.021649636541547</v>
+        <v>1.034430440380157</v>
       </c>
       <c r="E7">
-        <v>1.008718551228488</v>
+        <v>1.030091151219882</v>
       </c>
       <c r="F7">
-        <v>1.02239942410527</v>
+        <v>1.041682831265386</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04667407151282</v>
+        <v>1.03190671428796</v>
       </c>
       <c r="J7">
-        <v>1.020698371698752</v>
+        <v>1.031126393106523</v>
       </c>
       <c r="K7">
-        <v>1.031490690643596</v>
+        <v>1.036917688588823</v>
       </c>
       <c r="L7">
-        <v>1.018709911153074</v>
+        <v>1.032589455744248</v>
       </c>
       <c r="M7">
-        <v>1.032231906888677</v>
+        <v>1.044151822199229</v>
       </c>
       <c r="N7">
-        <v>1.010855317989447</v>
+        <v>1.014409244169333</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9955620153633985</v>
+        <v>1.025320996108215</v>
       </c>
       <c r="D8">
-        <v>1.017289844887466</v>
+        <v>1.033489995048158</v>
       </c>
       <c r="E8">
-        <v>1.003602693282571</v>
+        <v>1.028929780573294</v>
       </c>
       <c r="F8">
-        <v>1.017081894751853</v>
+        <v>1.040489384278258</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045124568696778</v>
+        <v>1.031694997612711</v>
       </c>
       <c r="J8">
-        <v>1.017299742068521</v>
+        <v>1.030370636169868</v>
       </c>
       <c r="K8">
-        <v>1.028240598604862</v>
+        <v>1.036228545087209</v>
       </c>
       <c r="L8">
-        <v>1.014734083950527</v>
+        <v>1.031681202525426</v>
       </c>
       <c r="M8">
-        <v>1.028035347365936</v>
+        <v>1.04320841541111</v>
       </c>
       <c r="N8">
-        <v>1.009718536810442</v>
+        <v>1.014157945447883</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.984909943568046</v>
+        <v>1.023155564307346</v>
       </c>
       <c r="D9">
-        <v>1.009249362922225</v>
+        <v>1.031831567101224</v>
       </c>
       <c r="E9">
-        <v>0.9942088066302883</v>
+        <v>1.026888207722974</v>
       </c>
       <c r="F9">
-        <v>1.007301318487054</v>
+        <v>1.038389228909845</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042146927052809</v>
+        <v>1.031307781151789</v>
       </c>
       <c r="J9">
-        <v>1.011007059769662</v>
+        <v>1.029036482261508</v>
       </c>
       <c r="K9">
-        <v>1.022194137159887</v>
+        <v>1.035007803073463</v>
       </c>
       <c r="L9">
-        <v>1.007396545931848</v>
+        <v>1.030080798678659</v>
       </c>
       <c r="M9">
-        <v>1.020277037261929</v>
+        <v>1.04154403236359</v>
       </c>
       <c r="N9">
-        <v>1.007612836756206</v>
+        <v>1.013714025377486</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9774506370449726</v>
+        <v>1.021713454493821</v>
       </c>
       <c r="D10">
-        <v>1.003626017820391</v>
+        <v>1.030725196851459</v>
       </c>
       <c r="E10">
-        <v>0.987664443367</v>
+        <v>1.025530535821388</v>
       </c>
       <c r="F10">
-        <v>1.00047695016334</v>
+        <v>1.03699112425682</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039985262918263</v>
+        <v>1.031040169763007</v>
       </c>
       <c r="J10">
-        <v>1.006588385620573</v>
+        <v>1.028145478658806</v>
       </c>
       <c r="K10">
-        <v>1.017930110574845</v>
+        <v>1.034189748147118</v>
       </c>
       <c r="L10">
-        <v>1.002260050100282</v>
+        <v>1.029013962388458</v>
       </c>
       <c r="M10">
-        <v>1.01483759846412</v>
+        <v>1.040433185394591</v>
       </c>
       <c r="N10">
-        <v>1.006133792307973</v>
+        <v>1.013417360011882</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.974127178267295</v>
+        <v>1.021089374032724</v>
       </c>
       <c r="D11">
-        <v>1.001123262426096</v>
+        <v>1.030245965438406</v>
       </c>
       <c r="E11">
-        <v>0.9847573295515805</v>
+        <v>1.024943465234315</v>
       </c>
       <c r="F11">
-        <v>0.9974430448332885</v>
+        <v>1.036386220533139</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039004841330871</v>
+        <v>1.030922054414817</v>
       </c>
       <c r="J11">
-        <v>1.004617363781378</v>
+        <v>1.02775930371126</v>
       </c>
       <c r="K11">
-        <v>1.016024026706579</v>
+        <v>1.033834532055986</v>
       </c>
       <c r="L11">
-        <v>0.9999725412166587</v>
+        <v>1.028552047053407</v>
       </c>
       <c r="M11">
-        <v>1.01241334321918</v>
+        <v>1.039951892894955</v>
       </c>
       <c r="N11">
-        <v>1.005473976737312</v>
+        <v>1.013288734427174</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9728778526797677</v>
+        <v>1.02085761801995</v>
       </c>
       <c r="D12">
-        <v>1.000182943922988</v>
+        <v>1.030067934006213</v>
       </c>
       <c r="E12">
-        <v>0.9836658789791189</v>
+        <v>1.024725524022222</v>
       </c>
       <c r="F12">
-        <v>0.9963036394134855</v>
+        <v>1.036161606510301</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038633765148516</v>
+        <v>1.030877845566123</v>
       </c>
       <c r="J12">
-        <v>1.003876139397817</v>
+        <v>1.027615807243422</v>
       </c>
       <c r="K12">
-        <v>1.01530663985512</v>
+        <v>1.033702440833173</v>
       </c>
       <c r="L12">
-        <v>0.9991128513692528</v>
+        <v>1.028380476910735</v>
       </c>
       <c r="M12">
-        <v>1.011502000149441</v>
+        <v>1.039773077252991</v>
       </c>
       <c r="N12">
-        <v>1.00522583977275</v>
+        <v>1.013240932317621</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9731465223929295</v>
+        <v>1.020907327958346</v>
       </c>
       <c r="D13">
-        <v>1.000385137232736</v>
+        <v>1.030106123396556</v>
       </c>
       <c r="E13">
-        <v>0.9839005346646166</v>
+        <v>1.024772267569295</v>
       </c>
       <c r="F13">
-        <v>0.996548620865252</v>
+        <v>1.036209783604001</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038713678578816</v>
+        <v>1.030887343687958</v>
       </c>
       <c r="J13">
-        <v>1.00403555352311</v>
+        <v>1.027646590148014</v>
       </c>
       <c r="K13">
-        <v>1.015460953214422</v>
+        <v>1.033730781536617</v>
       </c>
       <c r="L13">
-        <v>0.9992977187865741</v>
+        <v>1.0284172790112</v>
       </c>
       <c r="M13">
-        <v>1.011697986633068</v>
+        <v>1.039811435705338</v>
       </c>
       <c r="N13">
-        <v>1.005279206472099</v>
+        <v>1.013251187151209</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9740242162469687</v>
+        <v>1.021070215876657</v>
       </c>
       <c r="D14">
-        <v>1.001045756337754</v>
+        <v>1.030231249777201</v>
       </c>
       <c r="E14">
-        <v>0.9846673505317907</v>
+        <v>1.024925447630778</v>
       </c>
       <c r="F14">
-        <v>0.9973491195230375</v>
+        <v>1.036367652347645</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038974310297738</v>
+        <v>1.03091840693888</v>
       </c>
       <c r="J14">
-        <v>1.004556282150492</v>
+        <v>1.027747443342971</v>
       </c>
       <c r="K14">
-        <v>1.015964921145927</v>
+        <v>1.033823616370632</v>
       </c>
       <c r="L14">
-        <v>0.9999016860605333</v>
+        <v>1.028537864888224</v>
       </c>
       <c r="M14">
-        <v>1.012338236061708</v>
+        <v>1.039937112791963</v>
       </c>
       <c r="N14">
-        <v>1.005453528767362</v>
+        <v>1.013284783594728</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9745630005991144</v>
+        <v>1.021170583844637</v>
       </c>
       <c r="D15">
-        <v>1.001451354467186</v>
+        <v>1.030308341190319</v>
       </c>
       <c r="E15">
-        <v>0.9851382528947208</v>
+        <v>1.025019843249378</v>
       </c>
       <c r="F15">
-        <v>0.9978406603757849</v>
+        <v>1.036464930356249</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039133972035162</v>
+        <v>1.030937501589198</v>
       </c>
       <c r="J15">
-        <v>1.0048759011745</v>
+        <v>1.027809575208801</v>
       </c>
       <c r="K15">
-        <v>1.016274176465104</v>
+        <v>1.033880795374925</v>
       </c>
       <c r="L15">
-        <v>1.000272469066503</v>
+        <v>1.028612162622577</v>
       </c>
       <c r="M15">
-        <v>1.012731259102854</v>
+        <v>1.040014541038385</v>
       </c>
       <c r="N15">
-        <v>1.005560525686728</v>
+        <v>1.013305480190614</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9776691670687705</v>
+        <v>1.021754880364933</v>
       </c>
       <c r="D16">
-        <v>1.00379064719804</v>
+        <v>1.030756998485273</v>
       </c>
       <c r="E16">
-        <v>0.9878557832361174</v>
+        <v>1.025569514937829</v>
       </c>
       <c r="F16">
-        <v>1.00067658575664</v>
+        <v>1.037031280051661</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040049375208047</v>
+        <v>1.031047961597364</v>
       </c>
       <c r="J16">
-        <v>1.006717944063881</v>
+        <v>1.028171100212403</v>
       </c>
       <c r="K16">
-        <v>1.018055318378122</v>
+        <v>1.034213301837173</v>
       </c>
       <c r="L16">
-        <v>1.002410488607879</v>
+        <v>1.029044618943698</v>
       </c>
       <c r="M16">
-        <v>1.014996993115079</v>
+        <v>1.040465121214508</v>
       </c>
       <c r="N16">
-        <v>1.006177162016249</v>
+        <v>1.013425892966831</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9795920001966278</v>
+        <v>1.022121491765703</v>
       </c>
       <c r="D17">
-        <v>1.005239529328039</v>
+        <v>1.031038385928284</v>
       </c>
       <c r="E17">
-        <v>0.9895403682736617</v>
+        <v>1.025914527258664</v>
       </c>
       <c r="F17">
-        <v>1.002433934213713</v>
+        <v>1.037386666982101</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040611535511132</v>
+        <v>1.03111665157503</v>
       </c>
       <c r="J17">
-        <v>1.007857665323001</v>
+        <v>1.028397778318556</v>
       </c>
       <c r="K17">
-        <v>1.019156310091927</v>
+        <v>1.034421609249931</v>
       </c>
       <c r="L17">
-        <v>1.00373431236549</v>
+        <v>1.02931589659371</v>
       </c>
       <c r="M17">
-        <v>1.016399421909036</v>
+        <v>1.040747681850776</v>
       </c>
       <c r="N17">
-        <v>1.006558677062003</v>
+        <v>1.013501380101326</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.980704588448929</v>
+        <v>1.022335364926956</v>
       </c>
       <c r="D18">
-        <v>1.006078130332241</v>
+        <v>1.031202498375485</v>
       </c>
       <c r="E18">
-        <v>0.9905159223723501</v>
+        <v>1.026115845210438</v>
       </c>
       <c r="F18">
-        <v>1.003451396528384</v>
+        <v>1.037594004855846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040935166035672</v>
+        <v>1.031156501312514</v>
       </c>
       <c r="J18">
-        <v>1.008516908121158</v>
+        <v>1.028529960595207</v>
       </c>
       <c r="K18">
-        <v>1.019792765674963</v>
+        <v>1.034543015569821</v>
       </c>
       <c r="L18">
-        <v>1.004500396430674</v>
+        <v>1.029474131260516</v>
       </c>
       <c r="M18">
-        <v>1.017210819134128</v>
+        <v>1.040912466782671</v>
       </c>
       <c r="N18">
-        <v>1.006779348482638</v>
+        <v>1.013545394284187</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9810824543690826</v>
+        <v>1.022408296049594</v>
       </c>
       <c r="D19">
-        <v>1.006362982347472</v>
+        <v>1.031258453708688</v>
       </c>
       <c r="E19">
-        <v>0.9908473851822958</v>
+        <v>1.026184502640278</v>
       </c>
       <c r="F19">
-        <v>1.003797059219426</v>
+        <v>1.037664709592036</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041044798533062</v>
+        <v>1.031170052391667</v>
       </c>
       <c r="J19">
-        <v>1.00874076620421</v>
+        <v>1.028575025334069</v>
       </c>
       <c r="K19">
-        <v>1.020008819894018</v>
+        <v>1.034584395695124</v>
       </c>
       <c r="L19">
-        <v>1.004760594256805</v>
+        <v>1.0295280856717</v>
       </c>
       <c r="M19">
-        <v>1.01748637735878</v>
+        <v>1.040968649417338</v>
       </c>
       <c r="N19">
-        <v>1.006854280379787</v>
+        <v>1.01356039922776</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9793866315313218</v>
+        <v>1.022082154212909</v>
       </c>
       <c r="D20">
-        <v>1.005084754559724</v>
+        <v>1.03100819737281</v>
       </c>
       <c r="E20">
-        <v>0.9893603601801958</v>
+        <v>1.025877502614583</v>
       </c>
       <c r="F20">
-        <v>1.002246174650398</v>
+        <v>1.037348532488902</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040551664124863</v>
+        <v>1.031109304123888</v>
       </c>
       <c r="J20">
-        <v>1.007735959777982</v>
+        <v>1.028373461540485</v>
       </c>
       <c r="K20">
-        <v>1.019038780083399</v>
+        <v>1.034399269744758</v>
       </c>
       <c r="L20">
-        <v>1.003592910888317</v>
+        <v>1.02928679075131</v>
       </c>
       <c r="M20">
-        <v>1.016249642438483</v>
+        <v>1.040717368646752</v>
       </c>
       <c r="N20">
-        <v>1.006517937465804</v>
+        <v>1.013493282717961</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9737661737357377</v>
+        <v>1.021022247912936</v>
       </c>
       <c r="D21">
-        <v>1.000851519553868</v>
+        <v>1.030194403815925</v>
       </c>
       <c r="E21">
-        <v>0.9844418681189914</v>
+        <v>1.024880336517093</v>
       </c>
       <c r="F21">
-        <v>0.9971137422876014</v>
+        <v>1.036321161879876</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038897753283839</v>
+        <v>1.030909268843217</v>
       </c>
       <c r="J21">
-        <v>1.004403195327818</v>
+        <v>1.027717746071666</v>
       </c>
       <c r="K21">
-        <v>1.015816777574566</v>
+        <v>1.033796282907353</v>
       </c>
       <c r="L21">
-        <v>0.9997241130746062</v>
+        <v>1.02850235518541</v>
       </c>
       <c r="M21">
-        <v>1.012150002801826</v>
+        <v>1.039900105177433</v>
       </c>
       <c r="N21">
-        <v>1.005402280626851</v>
+        <v>1.013274890962566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9701460447268727</v>
+        <v>1.020356162845092</v>
       </c>
       <c r="D22">
-        <v>0.9981278331562966</v>
+        <v>1.029682603937157</v>
       </c>
       <c r="E22">
-        <v>0.981281866119766</v>
+        <v>1.024254090519935</v>
       </c>
       <c r="F22">
-        <v>0.9938142448739133</v>
+        <v>1.035675642878807</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03781780251922</v>
+        <v>1.030781557663122</v>
       </c>
       <c r="J22">
-        <v>1.002254874372642</v>
+        <v>1.027305160320939</v>
       </c>
       <c r="K22">
-        <v>1.013736469494928</v>
+        <v>1.033416304499376</v>
       </c>
       <c r="L22">
-        <v>0.9972334817930427</v>
+        <v>1.028009183342188</v>
       </c>
       <c r="M22">
-        <v>1.009509246891445</v>
+        <v>1.039386015736765</v>
       </c>
       <c r="N22">
-        <v>1.004683087549035</v>
+        <v>1.013137435841101</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9720736062142952</v>
+        <v>1.020709236540733</v>
       </c>
       <c r="D23">
-        <v>0.9995777702939996</v>
+        <v>1.029953931134222</v>
       </c>
       <c r="E23">
-        <v>0.9829636564353833</v>
+        <v>1.024586007490304</v>
       </c>
       <c r="F23">
-        <v>0.9955704655313659</v>
+        <v>1.036017803548494</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038394185091898</v>
+        <v>1.030849443545996</v>
       </c>
       <c r="J23">
-        <v>1.003398903698612</v>
+        <v>1.027523909063703</v>
       </c>
       <c r="K23">
-        <v>1.01484459072491</v>
+        <v>1.033617819103277</v>
       </c>
       <c r="L23">
-        <v>0.9985594972467753</v>
+        <v>1.028270619518258</v>
       </c>
       <c r="M23">
-        <v>1.01091532671768</v>
+        <v>1.039658566968748</v>
       </c>
       <c r="N23">
-        <v>1.005066076057539</v>
+        <v>1.013210316899982</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9794794564463689</v>
+        <v>1.022099929051825</v>
       </c>
       <c r="D24">
-        <v>1.005154710689308</v>
+        <v>1.031021838331404</v>
       </c>
       <c r="E24">
-        <v>0.9894417197888485</v>
+        <v>1.025894232216307</v>
       </c>
       <c r="F24">
-        <v>1.002331038461307</v>
+        <v>1.037365763680734</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040578730599781</v>
+        <v>1.031112624788129</v>
       </c>
       <c r="J24">
-        <v>1.007790970355787</v>
+        <v>1.028384449354694</v>
       </c>
       <c r="K24">
-        <v>1.019091904526098</v>
+        <v>1.034409364301847</v>
       </c>
       <c r="L24">
-        <v>1.003656822882784</v>
+        <v>1.029299942419435</v>
       </c>
       <c r="M24">
-        <v>1.016317341741766</v>
+        <v>1.040731065965144</v>
       </c>
       <c r="N24">
-        <v>1.006536351672992</v>
+        <v>1.013496941626991</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9877241044605874</v>
+        <v>1.023715117792803</v>
       </c>
       <c r="D25">
-        <v>1.011372655252567</v>
+        <v>1.032260449092179</v>
       </c>
       <c r="E25">
-        <v>0.9966849397439691</v>
+        <v>1.027415413562096</v>
       </c>
       <c r="F25">
-        <v>1.009881246151057</v>
+        <v>1.038931823093133</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042947038710391</v>
+        <v>1.031409557654283</v>
       </c>
       <c r="J25">
-        <v>1.012671783731234</v>
+        <v>1.029381673360419</v>
       </c>
       <c r="K25">
-        <v>1.023796953874205</v>
+        <v>1.035324143885474</v>
       </c>
       <c r="L25">
-        <v>1.009334936660849</v>
+        <v>1.030494528481268</v>
       </c>
       <c r="M25">
-        <v>1.022328080901139</v>
+        <v>1.041974542365786</v>
       </c>
       <c r="N25">
-        <v>1.008169986222183</v>
+        <v>1.013828917531855</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_125/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025004462179452</v>
+        <v>0.9940445297527912</v>
       </c>
       <c r="D2">
-        <v>1.033247798436321</v>
+        <v>1.016143934903597</v>
       </c>
       <c r="E2">
-        <v>1.028631126780108</v>
+        <v>1.002260865432195</v>
       </c>
       <c r="F2">
-        <v>1.040182332634911</v>
+        <v>1.015686062844847</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031639531406335</v>
+        <v>1.044709241325606</v>
       </c>
       <c r="J2">
-        <v>1.030175907542011</v>
+        <v>1.016404838813611</v>
       </c>
       <c r="K2">
-        <v>1.036050695691546</v>
+        <v>1.027382848994637</v>
       </c>
       <c r="L2">
-        <v>1.03144738233814</v>
+        <v>1.013688792416069</v>
       </c>
       <c r="M2">
-        <v>1.042965406825756</v>
+        <v>1.026931107166757</v>
       </c>
       <c r="N2">
-        <v>1.014093175471355</v>
+        <v>1.009419140881123</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025941250642918</v>
+        <v>0.9984973534040467</v>
       </c>
       <c r="D3">
-        <v>1.0339643505983</v>
+        <v>1.019506643491142</v>
       </c>
       <c r="E3">
-        <v>1.02951522696082</v>
+        <v>1.006201727999607</v>
       </c>
       <c r="F3">
-        <v>1.041091116857807</v>
+        <v>1.019784249070822</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031802521816234</v>
+        <v>1.045918697135007</v>
       </c>
       <c r="J3">
-        <v>1.030751910269369</v>
+        <v>1.019029066070089</v>
       </c>
       <c r="K3">
-        <v>1.036576435339062</v>
+        <v>1.029895871703355</v>
       </c>
       <c r="L3">
-        <v>1.032139253270252</v>
+        <v>1.016755866815326</v>
       </c>
       <c r="M3">
-        <v>1.043684303002206</v>
+        <v>1.030170093409531</v>
       </c>
       <c r="N3">
-        <v>1.014284739735747</v>
+        <v>1.010297018859026</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026547693437132</v>
+        <v>1.001319107047128</v>
       </c>
       <c r="D4">
-        <v>1.034427837185092</v>
+        <v>1.021637763715832</v>
       </c>
       <c r="E4">
-        <v>1.030087932679007</v>
+        <v>1.008704594948323</v>
       </c>
       <c r="F4">
-        <v>1.041679525126929</v>
+        <v>1.022384927251778</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031906136428874</v>
+        <v>1.046669921252845</v>
       </c>
       <c r="J4">
-        <v>1.03112430196314</v>
+        <v>1.020689130015721</v>
       </c>
       <c r="K4">
-        <v>1.036915784234094</v>
+        <v>1.031481869889357</v>
       </c>
       <c r="L4">
-        <v>1.032586940908179</v>
+        <v>1.018699086239346</v>
       </c>
       <c r="M4">
-        <v>1.044149211231412</v>
+        <v>1.032220488976592</v>
       </c>
       <c r="N4">
-        <v>1.014408549014147</v>
+        <v>1.010852227423588</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026802707625267</v>
+        <v>1.002491622187268</v>
       </c>
       <c r="D5">
-        <v>1.03462264466745</v>
+        <v>1.022523283307806</v>
       </c>
       <c r="E5">
-        <v>1.030328848604258</v>
+        <v>1.009745897067907</v>
       </c>
       <c r="F5">
-        <v>1.041926977717732</v>
+        <v>1.023466410900036</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031949252117797</v>
+        <v>1.046978369673318</v>
       </c>
       <c r="J5">
-        <v>1.031280777731725</v>
+        <v>1.021378198575981</v>
       </c>
       <c r="K5">
-        <v>1.037058244342417</v>
+        <v>1.03213928295649</v>
       </c>
       <c r="L5">
-        <v>1.032775147917316</v>
+        <v>1.019506417274674</v>
       </c>
       <c r="M5">
-        <v>1.044344593796908</v>
+        <v>1.033071919098423</v>
       </c>
       <c r="N5">
-        <v>1.014460563220377</v>
+        <v>1.011082652697144</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026845529451834</v>
+        <v>1.002687700379304</v>
       </c>
       <c r="D6">
-        <v>1.034655351179621</v>
+        <v>1.022671364798451</v>
       </c>
       <c r="E6">
-        <v>1.030369308232651</v>
+        <v>1.009920107645212</v>
       </c>
       <c r="F6">
-        <v>1.041968531084067</v>
+        <v>1.023647313569531</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03195646537986</v>
+        <v>1.047029731633363</v>
       </c>
       <c r="J6">
-        <v>1.031307046117775</v>
+        <v>1.021493386523223</v>
       </c>
       <c r="K6">
-        <v>1.037082152133773</v>
+        <v>1.032249125039078</v>
       </c>
       <c r="L6">
-        <v>1.032806748619465</v>
+        <v>1.019641417546074</v>
       </c>
       <c r="M6">
-        <v>1.044377395549799</v>
+        <v>1.03321426805239</v>
       </c>
       <c r="N6">
-        <v>1.014469294559141</v>
+        <v>1.011121169607869</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026551100692438</v>
+        <v>1.001334827636987</v>
       </c>
       <c r="D7">
-        <v>1.034430440380157</v>
+        <v>1.021649636541548</v>
       </c>
       <c r="E7">
-        <v>1.030091151219882</v>
+        <v>1.008718551228489</v>
       </c>
       <c r="F7">
-        <v>1.041682831265386</v>
+        <v>1.02239942410527</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03190671428796</v>
+        <v>1.04667407151282</v>
       </c>
       <c r="J7">
-        <v>1.031126393106523</v>
+        <v>1.020698371698752</v>
       </c>
       <c r="K7">
-        <v>1.036917688588823</v>
+        <v>1.031490690643597</v>
       </c>
       <c r="L7">
-        <v>1.032589455744248</v>
+        <v>1.018709911153074</v>
       </c>
       <c r="M7">
-        <v>1.044151822199229</v>
+        <v>1.032231906888678</v>
       </c>
       <c r="N7">
-        <v>1.014409244169333</v>
+        <v>1.010855317989447</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025320996108215</v>
+        <v>0.9955620153633987</v>
       </c>
       <c r="D8">
-        <v>1.033489995048158</v>
+        <v>1.017289844887466</v>
       </c>
       <c r="E8">
-        <v>1.028929780573294</v>
+        <v>1.003602693282572</v>
       </c>
       <c r="F8">
-        <v>1.040489384278258</v>
+        <v>1.017081894751854</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031694997612711</v>
+        <v>1.045124568696778</v>
       </c>
       <c r="J8">
-        <v>1.030370636169868</v>
+        <v>1.017299742068521</v>
       </c>
       <c r="K8">
-        <v>1.036228545087209</v>
+        <v>1.028240598604862</v>
       </c>
       <c r="L8">
-        <v>1.031681202525426</v>
+        <v>1.014734083950528</v>
       </c>
       <c r="M8">
-        <v>1.04320841541111</v>
+        <v>1.028035347365936</v>
       </c>
       <c r="N8">
-        <v>1.014157945447883</v>
+        <v>1.009718536810442</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023155564307346</v>
+        <v>0.9849099435680455</v>
       </c>
       <c r="D9">
-        <v>1.031831567101224</v>
+        <v>1.009249362922224</v>
       </c>
       <c r="E9">
-        <v>1.026888207722974</v>
+        <v>0.9942088066302884</v>
       </c>
       <c r="F9">
-        <v>1.038389228909845</v>
+        <v>1.007301318487053</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031307781151789</v>
+        <v>1.042146927052808</v>
       </c>
       <c r="J9">
-        <v>1.029036482261508</v>
+        <v>1.011007059769662</v>
       </c>
       <c r="K9">
-        <v>1.035007803073463</v>
+        <v>1.022194137159886</v>
       </c>
       <c r="L9">
-        <v>1.030080798678659</v>
+        <v>1.007396545931848</v>
       </c>
       <c r="M9">
-        <v>1.04154403236359</v>
+        <v>1.020277037261929</v>
       </c>
       <c r="N9">
-        <v>1.013714025377486</v>
+        <v>1.007612836756206</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021713454493821</v>
+        <v>0.9774506370449733</v>
       </c>
       <c r="D10">
-        <v>1.030725196851459</v>
+        <v>1.003626017820392</v>
       </c>
       <c r="E10">
-        <v>1.025530535821388</v>
+        <v>0.9876644433670007</v>
       </c>
       <c r="F10">
-        <v>1.03699112425682</v>
+        <v>1.000476950163341</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031040169763007</v>
+        <v>1.039985262918264</v>
       </c>
       <c r="J10">
-        <v>1.028145478658806</v>
+        <v>1.006588385620574</v>
       </c>
       <c r="K10">
-        <v>1.034189748147118</v>
+        <v>1.017930110574846</v>
       </c>
       <c r="L10">
-        <v>1.029013962388458</v>
+        <v>1.002260050100282</v>
       </c>
       <c r="M10">
-        <v>1.040433185394591</v>
+        <v>1.014837598464121</v>
       </c>
       <c r="N10">
-        <v>1.013417360011882</v>
+        <v>1.006133792307974</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021089374032724</v>
+        <v>0.9741271782672944</v>
       </c>
       <c r="D11">
-        <v>1.030245965438406</v>
+        <v>1.001123262426096</v>
       </c>
       <c r="E11">
-        <v>1.024943465234315</v>
+        <v>0.9847573295515798</v>
       </c>
       <c r="F11">
-        <v>1.036386220533139</v>
+        <v>0.9974430448332885</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030922054414817</v>
+        <v>1.03900484133087</v>
       </c>
       <c r="J11">
-        <v>1.02775930371126</v>
+        <v>1.004617363781378</v>
       </c>
       <c r="K11">
-        <v>1.033834532055986</v>
+        <v>1.016024026706578</v>
       </c>
       <c r="L11">
-        <v>1.028552047053407</v>
+        <v>0.999972541216658</v>
       </c>
       <c r="M11">
-        <v>1.039951892894955</v>
+        <v>1.01241334321918</v>
       </c>
       <c r="N11">
-        <v>1.013288734427174</v>
+        <v>1.005473976737312</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02085761801995</v>
+        <v>0.9728778526797666</v>
       </c>
       <c r="D12">
-        <v>1.030067934006213</v>
+        <v>1.000182943922987</v>
       </c>
       <c r="E12">
-        <v>1.024725524022222</v>
+        <v>0.9836658789791178</v>
       </c>
       <c r="F12">
-        <v>1.036161606510301</v>
+        <v>0.9963036394134847</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030877845566123</v>
+        <v>1.038633765148515</v>
       </c>
       <c r="J12">
-        <v>1.027615807243422</v>
+        <v>1.003876139397816</v>
       </c>
       <c r="K12">
-        <v>1.033702440833173</v>
+        <v>1.01530663985512</v>
       </c>
       <c r="L12">
-        <v>1.028380476910735</v>
+        <v>0.9991128513692515</v>
       </c>
       <c r="M12">
-        <v>1.039773077252991</v>
+        <v>1.01150200014944</v>
       </c>
       <c r="N12">
-        <v>1.013240932317621</v>
+        <v>1.005225839772749</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020907327958346</v>
+        <v>0.9731465223929308</v>
       </c>
       <c r="D13">
-        <v>1.030106123396556</v>
+        <v>1.000385137232737</v>
       </c>
       <c r="E13">
-        <v>1.024772267569295</v>
+        <v>0.9839005346646177</v>
       </c>
       <c r="F13">
-        <v>1.036209783604001</v>
+        <v>0.9965486208652531</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030887343687958</v>
+        <v>1.038713678578816</v>
       </c>
       <c r="J13">
-        <v>1.027646590148014</v>
+        <v>1.00403555352311</v>
       </c>
       <c r="K13">
-        <v>1.033730781536617</v>
+        <v>1.015460953214423</v>
       </c>
       <c r="L13">
-        <v>1.0284172790112</v>
+        <v>0.9992977187865753</v>
       </c>
       <c r="M13">
-        <v>1.039811435705338</v>
+        <v>1.011697986633069</v>
       </c>
       <c r="N13">
-        <v>1.013251187151209</v>
+        <v>1.005279206472099</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021070215876657</v>
+        <v>0.9740242162469694</v>
       </c>
       <c r="D14">
-        <v>1.030231249777201</v>
+        <v>1.001045756337755</v>
       </c>
       <c r="E14">
-        <v>1.024925447630778</v>
+        <v>0.9846673505317912</v>
       </c>
       <c r="F14">
-        <v>1.036367652347645</v>
+        <v>0.997349119523038</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03091840693888</v>
+        <v>1.038974310297739</v>
       </c>
       <c r="J14">
-        <v>1.027747443342971</v>
+        <v>1.004556282150493</v>
       </c>
       <c r="K14">
-        <v>1.033823616370632</v>
+        <v>1.015964921145928</v>
       </c>
       <c r="L14">
-        <v>1.028537864888224</v>
+        <v>0.9999016860605342</v>
       </c>
       <c r="M14">
-        <v>1.039937112791963</v>
+        <v>1.012338236061708</v>
       </c>
       <c r="N14">
-        <v>1.013284783594728</v>
+        <v>1.005453528767362</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021170583844637</v>
+        <v>0.9745630005991135</v>
       </c>
       <c r="D15">
-        <v>1.030308341190319</v>
+        <v>1.001451354467185</v>
       </c>
       <c r="E15">
-        <v>1.025019843249378</v>
+        <v>0.9851382528947203</v>
       </c>
       <c r="F15">
-        <v>1.036464930356249</v>
+        <v>0.9978406603757841</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030937501589198</v>
+        <v>1.039133972035162</v>
       </c>
       <c r="J15">
-        <v>1.027809575208801</v>
+        <v>1.004875901174499</v>
       </c>
       <c r="K15">
-        <v>1.033880795374925</v>
+        <v>1.016274176465104</v>
       </c>
       <c r="L15">
-        <v>1.028612162622577</v>
+        <v>1.000272469066502</v>
       </c>
       <c r="M15">
-        <v>1.040014541038385</v>
+        <v>1.012731259102853</v>
       </c>
       <c r="N15">
-        <v>1.013305480190614</v>
+        <v>1.005560525686727</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021754880364933</v>
+        <v>0.9776691670687708</v>
       </c>
       <c r="D16">
-        <v>1.030756998485273</v>
+        <v>1.00379064719804</v>
       </c>
       <c r="E16">
-        <v>1.025569514937829</v>
+        <v>0.987855783236118</v>
       </c>
       <c r="F16">
-        <v>1.037031280051661</v>
+        <v>1.000676585756641</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031047961597364</v>
+        <v>1.040049375208048</v>
       </c>
       <c r="J16">
-        <v>1.028171100212403</v>
+        <v>1.006717944063882</v>
       </c>
       <c r="K16">
-        <v>1.034213301837173</v>
+        <v>1.018055318378122</v>
       </c>
       <c r="L16">
-        <v>1.029044618943698</v>
+        <v>1.00241048860788</v>
       </c>
       <c r="M16">
-        <v>1.040465121214508</v>
+        <v>1.014996993115079</v>
       </c>
       <c r="N16">
-        <v>1.013425892966831</v>
+        <v>1.006177162016249</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022121491765703</v>
+        <v>0.979592000196628</v>
       </c>
       <c r="D17">
-        <v>1.031038385928284</v>
+        <v>1.00523952932804</v>
       </c>
       <c r="E17">
-        <v>1.025914527258664</v>
+        <v>0.9895403682736619</v>
       </c>
       <c r="F17">
-        <v>1.037386666982101</v>
+        <v>1.002433934213713</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03111665157503</v>
+        <v>1.040611535511132</v>
       </c>
       <c r="J17">
-        <v>1.028397778318556</v>
+        <v>1.007857665323001</v>
       </c>
       <c r="K17">
-        <v>1.034421609249931</v>
+        <v>1.019156310091928</v>
       </c>
       <c r="L17">
-        <v>1.02931589659371</v>
+        <v>1.00373431236549</v>
       </c>
       <c r="M17">
-        <v>1.040747681850776</v>
+        <v>1.016399421909037</v>
       </c>
       <c r="N17">
-        <v>1.013501380101326</v>
+        <v>1.006558677062002</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022335364926956</v>
+        <v>0.980704588448928</v>
       </c>
       <c r="D18">
-        <v>1.031202498375485</v>
+        <v>1.00607813033224</v>
       </c>
       <c r="E18">
-        <v>1.026115845210438</v>
+        <v>0.9905159223723493</v>
       </c>
       <c r="F18">
-        <v>1.037594004855846</v>
+        <v>1.003451396528383</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031156501312514</v>
+        <v>1.040935166035672</v>
       </c>
       <c r="J18">
-        <v>1.028529960595207</v>
+        <v>1.008516908121157</v>
       </c>
       <c r="K18">
-        <v>1.034543015569821</v>
+        <v>1.019792765674963</v>
       </c>
       <c r="L18">
-        <v>1.029474131260516</v>
+        <v>1.004500396430673</v>
       </c>
       <c r="M18">
-        <v>1.040912466782671</v>
+        <v>1.017210819134127</v>
       </c>
       <c r="N18">
-        <v>1.013545394284187</v>
+        <v>1.006779348482638</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022408296049594</v>
+        <v>0.9810824543690827</v>
       </c>
       <c r="D19">
-        <v>1.031258453708688</v>
+        <v>1.006362982347472</v>
       </c>
       <c r="E19">
-        <v>1.026184502640278</v>
+        <v>0.990847385182296</v>
       </c>
       <c r="F19">
-        <v>1.037664709592036</v>
+        <v>1.003797059219427</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031170052391667</v>
+        <v>1.041044798533062</v>
       </c>
       <c r="J19">
-        <v>1.028575025334069</v>
+        <v>1.00874076620421</v>
       </c>
       <c r="K19">
-        <v>1.034584395695124</v>
+        <v>1.020008819894018</v>
       </c>
       <c r="L19">
-        <v>1.0295280856717</v>
+        <v>1.004760594256805</v>
       </c>
       <c r="M19">
-        <v>1.040968649417338</v>
+        <v>1.017486377358781</v>
       </c>
       <c r="N19">
-        <v>1.01356039922776</v>
+        <v>1.006854280379787</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022082154212909</v>
+        <v>0.9793866315313224</v>
       </c>
       <c r="D20">
-        <v>1.03100819737281</v>
+        <v>1.005084754559725</v>
       </c>
       <c r="E20">
-        <v>1.025877502614583</v>
+        <v>0.9893603601801965</v>
       </c>
       <c r="F20">
-        <v>1.037348532488902</v>
+        <v>1.002246174650399</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031109304123888</v>
+        <v>1.040551664124863</v>
       </c>
       <c r="J20">
-        <v>1.028373461540485</v>
+        <v>1.007735959777983</v>
       </c>
       <c r="K20">
-        <v>1.034399269744758</v>
+        <v>1.019038780083399</v>
       </c>
       <c r="L20">
-        <v>1.02928679075131</v>
+        <v>1.003592910888318</v>
       </c>
       <c r="M20">
-        <v>1.040717368646752</v>
+        <v>1.016249642438484</v>
       </c>
       <c r="N20">
-        <v>1.013493282717961</v>
+        <v>1.006517937465804</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021022247912936</v>
+        <v>0.9737661737357387</v>
       </c>
       <c r="D21">
-        <v>1.030194403815925</v>
+        <v>1.000851519553868</v>
       </c>
       <c r="E21">
-        <v>1.024880336517093</v>
+        <v>0.984441868118992</v>
       </c>
       <c r="F21">
-        <v>1.036321161879876</v>
+        <v>0.9971137422876022</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030909268843217</v>
+        <v>1.038897753283839</v>
       </c>
       <c r="J21">
-        <v>1.027717746071666</v>
+        <v>1.004403195327819</v>
       </c>
       <c r="K21">
-        <v>1.033796282907353</v>
+        <v>1.015816777574567</v>
       </c>
       <c r="L21">
-        <v>1.02850235518541</v>
+        <v>0.9997241130746068</v>
       </c>
       <c r="M21">
-        <v>1.039900105177433</v>
+        <v>1.012150002801827</v>
       </c>
       <c r="N21">
-        <v>1.013274890962566</v>
+        <v>1.005402280626851</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020356162845092</v>
+        <v>0.9701460447268722</v>
       </c>
       <c r="D22">
-        <v>1.029682603937157</v>
+        <v>0.9981278331562961</v>
       </c>
       <c r="E22">
-        <v>1.024254090519935</v>
+        <v>0.981281866119765</v>
       </c>
       <c r="F22">
-        <v>1.035675642878807</v>
+        <v>0.9938142448739129</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030781557663122</v>
+        <v>1.03781780251922</v>
       </c>
       <c r="J22">
-        <v>1.027305160320939</v>
+        <v>1.002254874372641</v>
       </c>
       <c r="K22">
-        <v>1.033416304499376</v>
+        <v>1.013736469494927</v>
       </c>
       <c r="L22">
-        <v>1.028009183342188</v>
+        <v>0.9972334817930418</v>
       </c>
       <c r="M22">
-        <v>1.039386015736765</v>
+        <v>1.009509246891445</v>
       </c>
       <c r="N22">
-        <v>1.013137435841101</v>
+        <v>1.004683087549035</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020709236540733</v>
+        <v>0.9720736062142951</v>
       </c>
       <c r="D23">
-        <v>1.029953931134222</v>
+        <v>0.9995777702939994</v>
       </c>
       <c r="E23">
-        <v>1.024586007490304</v>
+        <v>0.9829636564353825</v>
       </c>
       <c r="F23">
-        <v>1.036017803548494</v>
+        <v>0.9955704655313655</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030849443545996</v>
+        <v>1.038394185091897</v>
       </c>
       <c r="J23">
-        <v>1.027523909063703</v>
+        <v>1.003398903698612</v>
       </c>
       <c r="K23">
-        <v>1.033617819103277</v>
+        <v>1.01484459072491</v>
       </c>
       <c r="L23">
-        <v>1.028270619518258</v>
+        <v>0.9985594972467746</v>
       </c>
       <c r="M23">
-        <v>1.039658566968748</v>
+        <v>1.01091532671768</v>
       </c>
       <c r="N23">
-        <v>1.013210316899982</v>
+        <v>1.005066076057538</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022099929051825</v>
+        <v>0.9794794564463694</v>
       </c>
       <c r="D24">
-        <v>1.031021838331404</v>
+        <v>1.005154710689308</v>
       </c>
       <c r="E24">
-        <v>1.025894232216307</v>
+        <v>0.9894417197888487</v>
       </c>
       <c r="F24">
-        <v>1.037365763680734</v>
+        <v>1.002331038461307</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031112624788129</v>
+        <v>1.040578730599781</v>
       </c>
       <c r="J24">
-        <v>1.028384449354694</v>
+        <v>1.007790970355788</v>
       </c>
       <c r="K24">
-        <v>1.034409364301847</v>
+        <v>1.019091904526098</v>
       </c>
       <c r="L24">
-        <v>1.029299942419435</v>
+        <v>1.003656822882784</v>
       </c>
       <c r="M24">
-        <v>1.040731065965144</v>
+        <v>1.016317341741766</v>
       </c>
       <c r="N24">
-        <v>1.013496941626991</v>
+        <v>1.006536351672992</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023715117792803</v>
+        <v>0.9877241044605864</v>
       </c>
       <c r="D25">
-        <v>1.032260449092179</v>
+        <v>1.011372655252566</v>
       </c>
       <c r="E25">
-        <v>1.027415413562096</v>
+        <v>0.9966849397439683</v>
       </c>
       <c r="F25">
-        <v>1.038931823093133</v>
+        <v>1.009881246151056</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031409557654283</v>
+        <v>1.042947038710391</v>
       </c>
       <c r="J25">
-        <v>1.029381673360419</v>
+        <v>1.012671783731233</v>
       </c>
       <c r="K25">
-        <v>1.035324143885474</v>
+        <v>1.023796953874204</v>
       </c>
       <c r="L25">
-        <v>1.030494528481268</v>
+        <v>1.009334936660848</v>
       </c>
       <c r="M25">
-        <v>1.041974542365786</v>
+        <v>1.022328080901138</v>
       </c>
       <c r="N25">
-        <v>1.013828917531855</v>
+        <v>1.008169986222183</v>
       </c>
     </row>
   </sheetData>
